--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E18D866B-2750-4095-A98A-AD698C02317D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DF08AF33-090B-4241-9114-7CA28633D718}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="9" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="VT-P-DebitVoid-DualCF-Generic" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="482">
   <si>
     <t>Result</t>
   </si>
@@ -380,94 +380,1108 @@
     <t>32161001</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 21:01:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:32:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:36:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:01:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:04:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:07:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:12:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:17:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:22:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:24:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:27:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:57:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:00:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:04:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:07:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:13:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:20:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:24:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:28:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:31:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:37:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:41:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 19:48:31 IST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 19:53:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 21:01:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:32:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:36:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:01:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:04:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:07:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:12:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:17:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:22:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:24:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:27:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:38:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:44:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:47:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:52:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:57:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:00:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:04:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:07:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:13:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:20:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:24:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:28:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:31:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:37:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:41:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 19:48:31 IST 2025</t>
+    <t>Fri Feb 28 00:43:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:45:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:46:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:48:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:50:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:52:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:53:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:54:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:55:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:57:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:58:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:00:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:02:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:03:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:04:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:06:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:07:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:08:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:09:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:11:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:12:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:13:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:14:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:16:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:31:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:32:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:34:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:35:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:36:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:37:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:38:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:40:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:41:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:42:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:43:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:44:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:46:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:47:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:48:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:49:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:50:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:52:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:53:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:54:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:55:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:57:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:58:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 01:59:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:00:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:01:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:03:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:04:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:05:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:07:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:08:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:09:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:11:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:12:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:13:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:15:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:16:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:17:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:18:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:19:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:20:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:22:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:23:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:24:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:26:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:27:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:28:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:30:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:31:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:32:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:33:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:35:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:36:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:37:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:38:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:39:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:41:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:42:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:43:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:44:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:46:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:47:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:48:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:49:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:51:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:52:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:53:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:54:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:51:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:53:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:54:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:56:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:57:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:58:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:59:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:00:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:01:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:02:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:04:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:05:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:06:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:08:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:09:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:10:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:11:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:12:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:13:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:14:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:16:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:17:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:19:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:20:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:35:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:36:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:38:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:39:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:41:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:42:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:43:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:44:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:45:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:46:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:49:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:50:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:51:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:52:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:53:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:54:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:55:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:56:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:58:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 10:59:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:01:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:02:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:03:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:04:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:05:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:06:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:08:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:09:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:10:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:11:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:13:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:14:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:15:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:16:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:17:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:19:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:20:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:21:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:23:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:24:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:25:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:26:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:27:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:28:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:29:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:31:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:32:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:34:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:35:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:36:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:37:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:38:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:39:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:41:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:43:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:44:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:46:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:47:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:48:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:49:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:50:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:51:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:53:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:54:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:56:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:57:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:58:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:09:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:11:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:12:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:13:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:15:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:16:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:22:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:23:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:24:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:25:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:26:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:28:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:30:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:31:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:33:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:34:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:36:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:37:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:38:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:40:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:41:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:43:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:44:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:10:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:11:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:13:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:15:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:16:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:17:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:22:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:24:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:26:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:27:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:29:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:30:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:31:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:32:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:33:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:35:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:37:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:38:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:40:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:41:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:42:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:43:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:44:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 21:05:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 21:08:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 21:10:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 21:11:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 21:12:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:27:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:29:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:31:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:32:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:34:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:35:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:36:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:37:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:39:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:40:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:42:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:43:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:45:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:46:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:47:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:48:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:49:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:51:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:52:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:54:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:55:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:56:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:58:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 01:59:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 02:00:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 02:01:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 02:02:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:33:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:35:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:37:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:38:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:40:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:41:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:42:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:44:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:45:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:47:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:48:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:49:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:50:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:51:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:52:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:54:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:55:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:57:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 03:58:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:00:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:01:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:02:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:02:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:04:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:05:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:07:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:08:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:53:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:54:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:55:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:56:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:58:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:59:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:01:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:02:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:04:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:05:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:06:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:07:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:09:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:10:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:12:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:13:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:14:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:15:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:16:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:18:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:19:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:21:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:23:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:24:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:25:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:26:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:28:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:16:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:18:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:19:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:21:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:22:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:23:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:25:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:26:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:28:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:30:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:31:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:33:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:34:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:35:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:36:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:38:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:39:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:40:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:42:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:44:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:45:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:46:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:47:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:49:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:50:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:52:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:53:20 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -816,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,10 +1942,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>473</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1724,7 +2738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2222826C-56BD-45AE-94B1-557604E55906}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AG2"/>
     </sheetView>
   </sheetViews>
@@ -2043,10 +3057,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>478</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2139,10 +3153,10 @@
     </row>
     <row ht="57.6" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>479</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -2235,10 +3249,10 @@
     </row>
     <row ht="57.6" r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>480</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -2330,8 +3344,12 @@
       </c>
     </row>
     <row ht="57.6" r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>481</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>34</v>
@@ -2542,10 +3560,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>474</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2638,10 +3656,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>475</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -2734,10 +3752,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>476</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -2830,10 +3848,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>477</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -3045,10 +4063,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>461</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3141,10 +4159,10 @@
     </row>
     <row ht="57.6" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>462</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -3237,10 +4255,10 @@
     </row>
     <row ht="57.6" r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>463</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -3333,10 +4351,10 @@
     </row>
     <row ht="57.6" r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>464</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -3434,15 +4452,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A032A2-FBCF-4DA0-9FFF-706908293773}">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U5"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3549,12 +4567,12 @@
         <v>105</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>469</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3647,13 +4665,16 @@
       <c r="AI2" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
     </row>
-    <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -3747,12 +4768,12 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -3846,12 +4867,12 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>472</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -4066,10 +5087,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>465</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4162,10 +5183,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>466</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -4258,10 +5279,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>467</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4354,10 +5375,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>468</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -4566,10 +5587,10 @@
     </row>
     <row ht="86.4" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>458</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4780,10 +5801,10 @@
     </row>
     <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>460</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4994,10 +6015,10 @@
     </row>
     <row ht="86.4" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>459</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="509">
   <si>
     <t>Result</t>
   </si>
@@ -1482,6 +1482,87 @@
   </si>
   <si>
     <t>Fri Mar 14 08:53:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:51:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:53:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:55:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:57:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:58:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:59:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:01:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:02:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:03:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:05:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:07:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:09:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:10:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:12:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:13:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:14:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:15:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:16:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:18:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:20:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:22:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:23:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:25:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:26:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:27:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:28:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:29:42 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +2026,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3060,7 +3141,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3156,7 +3237,7 @@
         <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -3252,7 +3333,7 @@
         <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -3348,7 +3429,7 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -3563,7 +3644,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3659,7 +3740,7 @@
         <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -3755,7 +3836,7 @@
         <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -3851,7 +3932,7 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -4066,7 +4147,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4162,7 +4243,7 @@
         <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -4258,7 +4339,7 @@
         <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4354,7 +4435,7 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -4572,7 +4653,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4674,7 +4755,7 @@
         <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -4773,7 +4854,7 @@
         <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4872,7 +4953,7 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -5090,7 +5171,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -5186,7 +5267,7 @@
         <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -5282,7 +5363,7 @@
         <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -5378,7 +5459,7 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -5590,7 +5671,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -5804,7 +5885,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -6018,7 +6099,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="239">
   <si>
     <t>Notes</t>
   </si>
@@ -576,6 +576,183 @@
   </si>
   <si>
     <t>Fri May 02 19:25:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 08 20:56:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 08 20:58:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 08 21:01:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 08 21:03:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:11:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:13:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:16:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:18:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:20:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:23:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:25:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:27:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:30:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:32:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:35:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:37:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:40:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:42:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:44:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:47:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:49:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:52:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:54:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:57:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:59:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 23:01:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 23:04:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 23:06:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 23:08:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 23:11:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 23:13:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:57:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:58:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:58:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:59:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:00:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:01:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:02:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:03:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:04:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:05:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:06:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:07:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:08:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:09:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:10:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:12:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:13:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:14:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:14:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:15:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:17:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:18:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:19:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:20:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:21:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:22:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:23:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:49:31 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1223,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2167,7 +2347,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2260,7 +2443,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -2353,7 +2539,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -2446,7 +2635,10 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -2666,7 +2858,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2759,7 +2954,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -2852,7 +3050,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -2945,7 +3146,10 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -3163,7 +3367,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3256,7 +3463,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3349,7 +3559,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3442,7 +3655,10 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>220</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -3660,7 +3876,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3759,7 +3978,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3855,7 +4077,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3951,7 +4176,10 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4172,7 +4400,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -4265,7 +4496,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>222</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -4358,7 +4592,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4451,7 +4688,10 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>224</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4663,7 +4903,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -4877,7 +5120,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -5091,7 +5337,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">

--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3CAB5401-A23C-4DA6-B947-35FD45F9BA87}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{58D5C79B-E38B-4A5D-8B58-523AEA936F9A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="VT-C-DebitVoid-SingleCF-Generic" r:id="rId11" sheetId="11"/>
     <sheet name="VT-C-DebitVoid-DualCF-Generic" r:id="rId12" sheetId="12"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="163">
   <si>
     <t>Notes</t>
   </si>
@@ -350,78 +350,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Wed Mar 26 01:57:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 01:58:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 01:59:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:01:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:02:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:03:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:05:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:07:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:09:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:10:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:12:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:13:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:14:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:15:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:16:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:18:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:20:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:22:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:23:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:25:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:26:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:27:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:28:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:29:42 IST 2025</t>
-  </si>
-  <si>
     <t>ResultProd</t>
   </si>
   <si>
@@ -440,319 +368,163 @@
     <t>ExecuteDemo</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 20:17:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 20:18:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 20:23:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:33:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:34:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:35:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:36:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:39:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:40:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:40:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:41:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 17:59:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:00:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:01:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:02:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:09:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:13:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:14:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:15:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:16:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:21:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:22:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:22:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:23:48 IST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Apr 30 02:16:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 02:21:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 02:22:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 02:27:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 21:06:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 21:08:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 21:09:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 21:18:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 21:19:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:38:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:39:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:40:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:41:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:42:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:43:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:48:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:26:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:30:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:36:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:43:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:44:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:45:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:46:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:49:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:50:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:52:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:53:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:59:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:00:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:01:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:02:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:07:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:09:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:10:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:11:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:13:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:17:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:18:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:19:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:20:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:22:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:23:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:24:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:25:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 08 20:56:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 08 20:58:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 08 21:01:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 08 21:03:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:11:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:13:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:16:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:18:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:20:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:23:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:25:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:27:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:30:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:32:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:35:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:37:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:40:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:42:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:44:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:47:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:49:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:52:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:54:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:57:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:59:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:01:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:04:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:06:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:08:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:11:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:13:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 14:57:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 14:58:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 14:58:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 14:59:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:00:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:01:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:02:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:03:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:04:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:05:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:06:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:07:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:08:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:09:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:10:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:12:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:13:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:14:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:14:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:15:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:17:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:18:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:19:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:20:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:21:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:22:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:23:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:49:31 IST 2025</t>
+    <t>Thu Jun 19 18:19:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:20:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:20:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:21:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:22:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:23:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:24:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:25:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:26:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:26:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:27:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:29:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:30:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:31:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:31:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:32:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:33:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:34:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:35:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:36:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:37:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:38:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:39:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:40:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:41:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:42:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:43:02 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1105,33 +877,33 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="48.88671875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1218,15 +990,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -1314,7 +1086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1405,7 +1177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1496,7 +1268,7 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1603,29 +1375,29 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1709,7 +1481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1812,29 +1584,29 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1918,7 +1690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2021,29 +1793,29 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2127,7 +1899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2230,32 +2002,32 @@
       <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2342,15 +2114,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2438,15 +2210,15 @@
         <v>87</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -2534,15 +2306,15 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -2630,15 +2402,15 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -2739,34 +2511,34 @@
       <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2853,15 +2625,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2949,15 +2721,15 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3045,15 +2817,15 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="43.2" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3141,15 +2913,15 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="43.2" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -3250,32 +3022,32 @@
       <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="30.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -3362,15 +3134,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3458,15 +3230,15 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3554,15 +3326,15 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3650,15 +3422,15 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -3759,29 +3531,29 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="45" r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -3871,15 +3643,15 @@
         <v>94</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="60" r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3973,15 +3745,15 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -4072,15 +3844,15 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="57.6" r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4171,15 +3943,15 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="57.6" r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4283,32 +4055,32 @@
       <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -4395,15 +4167,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -4491,15 +4263,15 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -4587,15 +4359,15 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="43.2" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4683,15 +4455,15 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="43.2" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4792,29 +4564,29 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -4898,15 +4670,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -5003,32 +4775,35 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -5115,15 +4890,15 @@
         <v>94</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -5226,29 +5001,29 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -5332,15 +5107,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">

--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3CAB5401-A23C-4DA6-B947-35FD45F9BA87}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{58D5C79B-E38B-4A5D-8B58-523AEA936F9A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="VT-C-DebitVoid-SingleCF-Generic" r:id="rId11" sheetId="11"/>
     <sheet name="VT-C-DebitVoid-DualCF-Generic" r:id="rId12" sheetId="12"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="187">
   <si>
     <t>Notes</t>
   </si>
@@ -350,78 +350,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Wed Mar 26 01:57:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 01:58:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 01:59:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:01:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:02:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:03:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:05:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:07:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:09:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:10:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:12:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:13:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:14:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:15:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:16:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:18:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:20:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:22:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:23:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:25:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:26:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:27:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:28:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 02:29:42 IST 2025</t>
-  </si>
-  <si>
     <t>ResultProd</t>
   </si>
   <si>
@@ -440,319 +368,235 @@
     <t>ExecuteDemo</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 20:17:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 20:18:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 20:23:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:33:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:34:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:35:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:36:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:39:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:40:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:40:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 23:41:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 17:59:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:00:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:01:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:02:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:09:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:13:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:14:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:15:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:16:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:21:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:22:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:22:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:23:48 IST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Apr 30 02:16:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 02:21:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 02:22:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 02:27:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 21:06:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 21:08:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 21:09:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 21:18:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 30 21:19:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:38:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:39:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:40:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:41:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:42:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:43:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 01 19:48:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:26:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:30:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:36:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:43:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:44:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:45:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:46:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:49:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:50:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:52:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:53:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 18:59:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:00:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:01:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:02:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:07:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:09:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:10:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:11:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:13:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:17:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:18:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:19:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:20:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:22:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:23:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:24:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 02 19:25:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 08 20:56:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 08 20:58:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 08 21:01:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 08 21:03:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:11:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:13:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:16:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:18:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:20:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:23:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:25:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:27:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:30:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:32:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:35:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:37:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:40:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:42:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:44:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:47:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:49:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:52:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:54:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:57:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 22:59:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:01:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:04:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:06:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:08:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:11:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 15 23:13:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 14:57:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 14:58:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 14:58:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 14:59:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:00:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:01:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:02:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:03:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:04:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:05:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:06:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:07:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:08:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:09:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:10:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:12:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:13:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:14:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:14:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:15:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:17:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:18:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:19:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:20:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:21:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:22:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:23:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed May 21 15:49:31 IST 2025</t>
+    <t>Thu Jun 19 18:19:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:20:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:20:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:21:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:22:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:23:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:24:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:25:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:26:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:26:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:27:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:29:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:30:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:31:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:31:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:32:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:33:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:34:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:35:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:36:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:37:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:38:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:39:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:40:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:41:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:42:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:43:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 21:05:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 21:15:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 21:34:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 21:43:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 21:45:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 21:47:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 21:51:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:00:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:01:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:02:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:03:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:05:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:06:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:06:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:07:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:09:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:10:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:11:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:12:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:13:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:36:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:37:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:38:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 22:38:58 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1105,33 +949,33 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="48.88671875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1218,15 +1062,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -1314,7 +1158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1405,7 +1249,7 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1496,7 +1340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1603,29 +1447,29 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1709,7 +1553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1812,29 +1656,29 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1918,7 +1762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2021,29 +1865,29 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2127,7 +1971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2230,32 +2074,32 @@
       <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2342,15 +2186,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2438,15 +2282,15 @@
         <v>87</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -2534,15 +2378,15 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -2630,15 +2474,15 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -2739,34 +2583,34 @@
       <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2853,15 +2697,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2949,15 +2793,15 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3045,15 +2889,15 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="43.2" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3141,15 +2985,15 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="43.2" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -3250,32 +3094,32 @@
       <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="30.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -3362,15 +3206,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3458,15 +3302,15 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3554,15 +3398,15 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3650,15 +3494,15 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -3759,29 +3603,29 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="45" r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -3871,15 +3715,15 @@
         <v>94</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="60" r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3973,15 +3817,15 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -4072,15 +3916,15 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="57.6" r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4171,15 +4015,15 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="57.6" r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4283,32 +4127,32 @@
       <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -4395,15 +4239,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -4491,15 +4335,15 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -4587,15 +4431,15 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="43.2" r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4683,15 +4527,15 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="43.2" r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4792,29 +4636,29 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -4898,15 +4742,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -5003,32 +4847,35 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="45" r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -5115,15 +4962,15 @@
         <v>94</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -5226,29 +5073,29 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -5332,15 +5179,15 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="86.4" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="90" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">

--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="265">
   <si>
     <t>Notes</t>
   </si>
@@ -597,6 +597,240 @@
   </si>
   <si>
     <t>Mon Aug 04 22:38:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:50:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:51:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:52:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:53:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:54:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:54:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:55:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:56:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:57:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:58:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:59:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:00:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:01:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:02:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:03:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:04:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:04:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:05:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:06:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:07:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:08:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:09:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:10:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:11:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:12:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:13:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:14:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:58:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:04:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:10:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:13:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:19:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:57:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:58:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:58:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:59:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 00:03:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 00:04:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 00:04:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 00:05:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 00:14:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 00:15:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 00:16:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 00:17:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:01:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:02:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:03:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:04:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:13:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:24:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:25:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:06:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:07:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:08:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:09:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:10:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:11:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:12:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:13:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:14:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:15:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:16:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:17:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:17:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:18:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:19:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:20:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:21:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:22:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:23:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:24:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:25:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:26:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:27:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:28:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:29:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:30:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:31:14 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1301,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2191,7 +2425,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2287,7 +2521,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -2383,7 +2617,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -2479,7 +2713,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -2702,7 +2936,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2798,7 +3032,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -2894,7 +3128,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -2990,7 +3224,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3211,7 +3445,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3307,7 +3541,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3403,7 +3637,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3499,7 +3733,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3720,7 +3954,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3822,7 +4056,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3921,7 +4155,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4020,7 +4254,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4244,7 +4478,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4340,7 +4574,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -4436,7 +4670,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4532,7 +4766,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4747,7 +4981,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4967,7 +5201,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5184,7 +5418,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>

--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="319">
   <si>
     <t>Notes</t>
   </si>
@@ -831,6 +831,168 @@
   </si>
   <si>
     <t>Tue Aug 12 02:31:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:32:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:33:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:34:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:35:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:36:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:37:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:38:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:39:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:40:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:41:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:42:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:43:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:43:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:44:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:45:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:46:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:47:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:48:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:49:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:50:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:51:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:52:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:53:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:54:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:55:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:56:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:57:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:32:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:33:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:34:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:35:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:36:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:37:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:39:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:40:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:41:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:42:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:43:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:45:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:46:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:47:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:48:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:49:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:50:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:52:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:53:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:54:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:55:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:56:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:58:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:59:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:00:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:02:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:03:13 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1463,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2425,7 +2587,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2521,7 +2683,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -2617,7 +2779,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -2713,7 +2875,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -2936,7 +3098,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3032,7 +3194,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3128,7 +3290,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3224,7 +3386,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3445,7 +3607,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3541,7 +3703,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3637,7 +3799,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3733,7 +3895,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3954,7 +4116,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4056,7 +4218,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -4155,7 +4317,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4254,7 +4416,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4478,7 +4640,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4574,7 +4736,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -4670,7 +4832,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4766,7 +4928,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4981,7 +5143,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5201,7 +5363,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5418,7 +5580,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>

--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="373">
   <si>
     <t>Notes</t>
   </si>
@@ -993,6 +993,168 @@
   </si>
   <si>
     <t>Sat Aug 23 00:03:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:12:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:13:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:14:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:16:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:17:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:18:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:19:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:21:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:22:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:23:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:24:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:25:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:27:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:28:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:29:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:30:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:32:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:33:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:34:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:35:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:37:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:38:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:39:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:40:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:41:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:42:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:43:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:12:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:13:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:14:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:15:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:16:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:17:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:18:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:19:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:20:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:21:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:22:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:23:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:24:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:26:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:27:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:28:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:29:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:30:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:31:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:32:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:33:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:34:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:36:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:37:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:38:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:39:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:40:30 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1625,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2587,7 +2749,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2683,7 +2845,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -2779,7 +2941,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -2875,7 +3037,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3098,7 +3260,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3194,7 +3356,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3290,7 +3452,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3386,7 +3548,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3607,7 +3769,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3703,7 +3865,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3799,7 +3961,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3895,7 +4057,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4116,7 +4278,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4218,7 +4380,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -4317,7 +4479,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4416,7 +4578,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4640,7 +4802,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4736,7 +4898,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -4832,7 +4994,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4928,7 +5090,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -5143,7 +5305,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5363,7 +5525,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5580,7 +5742,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>

--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="400">
   <si>
     <t>Notes</t>
   </si>
@@ -1155,6 +1155,87 @@
   </si>
   <si>
     <t>Thu Aug 28 08:40:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:57:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:58:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:59:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:00:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:01:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:02:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:03:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:05:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:06:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:07:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:08:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:09:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:10:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:11:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:12:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:14:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:15:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:16:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:17:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:18:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:19:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:21:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:22:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:23:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:24:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:25:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:26:41 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1706,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2749,7 +2830,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2845,7 +2926,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -2941,7 +3022,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3037,7 +3118,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3260,7 +3341,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3356,7 +3437,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3452,7 +3533,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3548,7 +3629,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3769,7 +3850,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3862,10 +3943,10 @@
     </row>
     <row ht="60" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3961,7 +4042,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4057,7 +4138,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4278,7 +4359,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4380,7 +4461,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -4479,7 +4560,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4578,7 +4659,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4802,7 +4883,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4898,7 +4979,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -4994,7 +5075,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -5090,7 +5171,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -5305,7 +5386,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5525,7 +5606,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5742,7 +5823,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>

--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="481">
   <si>
     <t>Notes</t>
   </si>
@@ -1236,6 +1236,249 @@
   </si>
   <si>
     <t>Thu Sep 04 07:26:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:59:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:00:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:01:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:02:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:03:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:04:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:05:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:06:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:07:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:08:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:09:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:11:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:12:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:13:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:14:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:15:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:16:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:17:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:18:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:19:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:20:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:21:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:22:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:23:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:24:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:25:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:26:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:44:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:45:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:46:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:47:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:48:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:49:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:51:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:52:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:53:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:54:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:55:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:56:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:57:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:59:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:00:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:01:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:02:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:03:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:04:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:05:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:06:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:07:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:08:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:09:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:11:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:12:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:13:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:08:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:09:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:10:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:11:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:13:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:13:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:15:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:16:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:17:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:18:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:20:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:21:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:22:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:23:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:24:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:25:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:26:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:27:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:28:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:29:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:30:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:32:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:33:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:34:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:35:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:36:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:37:50 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1949,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>472</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2830,7 +3073,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2926,7 +3169,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3022,7 +3265,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3118,7 +3361,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3341,7 +3584,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>473</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3437,7 +3680,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3533,7 +3776,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3629,7 +3872,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>476</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3850,7 +4093,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3943,10 +4186,10 @@
     </row>
     <row ht="60" r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>461</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -4042,7 +4285,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4138,7 +4381,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4359,7 +4602,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4461,7 +4704,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>469</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -4560,7 +4803,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>470</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4659,7 +4902,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>471</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4883,7 +5126,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4979,7 +5222,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>465</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -5075,7 +5318,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>385</v>
+        <v>466</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -5171,7 +5414,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -5386,7 +5629,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5606,7 +5849,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>459</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5823,7 +6066,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>

--- a/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-ACH-Data-Prod.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="562">
   <si>
     <t>Notes</t>
   </si>
@@ -1479,6 +1479,249 @@
   </si>
   <si>
     <t>Mon Nov 10 17:37:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:18:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:19:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:20:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:22:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:23:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:24:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:25:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:26:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:27:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:28:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:29:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:31:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:32:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:33:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:34:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:35:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:36:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:37:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:38:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:39:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:40:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:42:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:43:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:44:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:45:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:46:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:47:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:53:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:54:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:55:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:56:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:57:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:59:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:00:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:01:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:02:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:03:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:04:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:06:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:07:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:08:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:09:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:10:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:11:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:13:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:14:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:15:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:16:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:17:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:19:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:20:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:21:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:22:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:23:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:54:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:55:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:56:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:57:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:59:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:00:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:01:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:02:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:04:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:05:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:06:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:07:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:08:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:09:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:11:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:12:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:13:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:29:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:30:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:31:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:33:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:34:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:35:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:36:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:37:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:39:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:32:39 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +2192,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3073,7 +3316,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>557</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3169,7 +3412,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3265,7 +3508,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3361,7 +3604,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3584,7 +3827,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -3680,7 +3923,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>554</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -3776,7 +4019,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>555</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -3872,7 +4115,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4093,7 +4336,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>541</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -4189,7 +4432,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>542</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -4285,7 +4528,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -4381,7 +4624,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4602,10 +4845,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>549</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -4704,10 +4947,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -4803,10 +5046,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>551</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4902,7 +5145,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -5126,7 +5369,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5222,7 +5465,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -5318,7 +5561,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -5414,7 +5657,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -5629,7 +5872,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>538</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -5849,10 +6092,10 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>561</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -6066,7 +6309,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>539</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
